--- a/Licenta/Logs/placuta1@localhost/MatriX.xlsx
+++ b/Licenta/Logs/placuta1@localhost/MatriX.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Date senzori" sheetId="2" r:id="rId2"/>
-    <x:sheet name="SenzorA" sheetId="3" r:id="rId3"/>
+    <x:sheet name="SenzorA" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SenzorB" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,13 +17,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Date</x:t>
+    <x:t>Date Senzor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-06-23 16:02:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -374,12 +392,53 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:A4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -393,40 +452,58 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A2"/>
+  <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
         <x:v>2</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
